--- a/biology/Botanique/Stanhopea_warszewicziana/Stanhopea_warszewicziana.xlsx
+++ b/biology/Botanique/Stanhopea_warszewicziana/Stanhopea_warszewicziana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanhopea warszewicziana est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) que l'on trouve du Costa Rica à l'ouest du Panama .
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante fleurit pendant l'été avec jusqu'à 8 fleurs. Les fleurs sont parfumées et mesurent 8,75 cm de large. Épiphyte de taille moyenne, elle possède des pseudobulbes pyriformes à ovales, sillonnés avec un seul apical, coriace, plié, côtelé, elliptique-obovale , se rétrécissant progressivement en bas dans la feuille de base allongée et pétiolée qui fleurit sur une inflorescence latérale, pendante, de 12 à 15 cm de long, racémeuse, plusieurs inflorescence fleurie sur un a de grandes bractées chartacées et des fleurs parfumées de courte durée qui se produisent en été.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante se trouve dans la forêt tropicale du Costa Rica et de l'ouest du Panama à des altitudes de 500 à 1400 mètres.
 </t>
@@ -573,9 +589,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante doit être cultivée à l'ombre. Conserver à des températures intermédiaires à chaudes et arroser régulièrement. Pot en écorce de sapin moyen ou en mousse de sphaigne. Gardez l'humidité élevée. Les plantes sont généralement cultivées dans des paniers[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante doit être cultivée à l'ombre. Conserver à des températures intermédiaires à chaudes et arroser régulièrement. Pot en écorce de sapin moyen ou en mousse de sphaigne. Gardez l'humidité élevée. Les plantes sont généralement cultivées dans des paniers.
 </t>
         </is>
       </c>
